--- a/project/templates/Interface test_case.xlsx
+++ b/project/templates/Interface test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTPM\Project-KTPM\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA250B6-BB07-4C06-A16A-5E631A981F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F7A87-4AEE-534D-A4CC-6BBA0924CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20080" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test case List" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,20 @@
     <sheet name="TestDataModule5" sheetId="11" r:id="rId11"/>
     <sheet name="Test Report" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1322,7 +1335,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1330,23 +1343,27 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFA500"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1402,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1433,6 +1450,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,7 +1762,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -1747,7 +1770,7 @@
     <col min="4" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +1786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -1805,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -1822,7 +1845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -1839,7 +1862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1856,7 +1879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>5</v>
       </c>
@@ -1882,11 +1905,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -1898,7 +1921,7 @@
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1906,7 +1929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1914,7 +1937,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1922,7 +1945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1939,7 +1962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -1956,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +2008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>389</v>
       </c>
@@ -2014,7 +2037,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>396</v>
       </c>
@@ -2054,12 +2077,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
@@ -2079,7 +2102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
@@ -2099,7 +2122,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -2129,17 +2152,17 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>415</v>
       </c>
@@ -2150,7 +2173,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2166,7 +2189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>416</v>
       </c>
@@ -2174,7 +2197,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>418</v>
       </c>
@@ -2182,7 +2205,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>420</v>
       </c>
@@ -2190,7 +2213,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -2236,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>3</v>
       </c>
@@ -2282,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>4</v>
       </c>
@@ -2305,7 +2328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>5</v>
       </c>
@@ -2328,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>423</v>
       </c>
@@ -2348,7 +2371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>424</v>
       </c>
@@ -2356,7 +2379,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>426</v>
       </c>
@@ -2376,11 +2399,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -2392,7 +2415,7 @@
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2400,7 +2423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2408,7 +2431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -2416,7 +2439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>6</v>
       </c>
@@ -2450,7 +2473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -2479,7 +2502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -2508,7 +2531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -2537,7 +2560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -2566,7 +2589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -2595,7 +2618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>78</v>
       </c>
@@ -2624,7 +2647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -2653,7 +2676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -2682,7 +2705,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>99</v>
       </c>
@@ -2722,12 +2745,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
@@ -2750,7 +2773,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
@@ -2773,7 +2796,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -2796,7 +2819,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -2819,7 +2842,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -2842,7 +2865,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
@@ -2865,7 +2888,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>90</v>
       </c>
@@ -2888,7 +2911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -2911,7 +2934,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
@@ -2943,11 +2966,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -2959,7 +2982,7 @@
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -2967,7 +2990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -2975,7 +2998,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -2983,7 +3006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -3000,7 +3023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>7</v>
       </c>
@@ -3017,7 +3040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -3046,235 +3069,235 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="15" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="15" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3289,12 +3312,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
@@ -3317,7 +3340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
@@ -3340,7 +3363,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -3363,7 +3386,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -3386,7 +3409,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -3409,7 +3432,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
@@ -3432,7 +3455,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>90</v>
       </c>
@@ -3455,7 +3478,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -3478,7 +3501,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
@@ -3514,7 +3537,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -3526,7 +3549,7 @@
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -3542,7 +3565,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -3550,7 +3573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -3567,7 +3590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>7</v>
       </c>
@@ -3584,7 +3607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -3613,7 +3636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>221</v>
       </c>
@@ -3642,7 +3665,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>228</v>
       </c>
@@ -3671,7 +3694,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>234</v>
       </c>
@@ -3700,7 +3723,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>240</v>
       </c>
@@ -3729,7 +3752,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>246</v>
       </c>
@@ -3758,7 +3781,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>252</v>
       </c>
@@ -3787,7 +3810,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>258</v>
       </c>
@@ -3827,12 +3850,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
@@ -3852,7 +3875,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
@@ -3872,7 +3895,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -3892,7 +3915,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -3912,7 +3935,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -3932,7 +3955,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
@@ -3952,7 +3975,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>90</v>
       </c>
@@ -3972,7 +3995,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -4001,11 +4024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -4017,7 +4040,7 @@
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -4025,7 +4048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -4033,7 +4056,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -4041,7 +4064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -4058,7 +4081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>7</v>
       </c>
@@ -4075,7 +4098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
@@ -4104,293 +4127,293 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="15" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="15" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="15" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="15" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4405,12 +4428,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
@@ -4430,7 +4453,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
@@ -4450,7 +4473,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -4470,7 +4493,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -4490,7 +4513,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
@@ -4510,7 +4533,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
@@ -4530,7 +4553,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>90</v>
       </c>
@@ -4550,7 +4573,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -4570,7 +4593,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
@@ -4590,7 +4613,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>348</v>
       </c>
@@ -4610,7 +4633,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>355</v>
       </c>
